--- a/params.xlsx
+++ b/params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8351a88428b982e/Master/MRST/summer_sintef/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="8_{5A7E1129-02B9-4081-9DC3-4B1F6E6D9705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA00C491-86FB-4B03-A152-7D061D0F5354}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{5A7E1129-02B9-4081-9DC3-4B1F6E6D9705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE98E791-80C6-43B7-AA68-2EE6178FD54F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EA72C794-5F15-4919-A5C6-0FE572CB2F79}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="55">
   <si>
     <t>nr layers</t>
   </si>
@@ -156,12 +156,6 @@
     <t>Case 4 - study 1 (pc)</t>
   </si>
   <si>
-    <t>[50, 100]</t>
-  </si>
-  <si>
-    <t>[600, 600]</t>
-  </si>
-  <si>
     <t>12 m^3/s</t>
   </si>
   <si>
@@ -174,15 +168,9 @@
     <t>p_e</t>
   </si>
   <si>
-    <t>1*barsa</t>
-  </si>
-  <si>
     <t>p_cap</t>
   </si>
   <si>
-    <t>5*barsa</t>
-  </si>
-  <si>
     <t>std_gauss</t>
   </si>
   <si>
@@ -190,6 +178,27 @@
   </si>
   <si>
     <t>corr_len_z</t>
+  </si>
+  <si>
+    <t>poro</t>
+  </si>
+  <si>
+    <t>[75, 75]</t>
+  </si>
+  <si>
+    <t>0.5*barsa</t>
+  </si>
+  <si>
+    <t>3*barsa</t>
+  </si>
+  <si>
+    <t>[800, 450]</t>
+  </si>
+  <si>
+    <t>lowperm</t>
+  </si>
+  <si>
+    <t>20 md</t>
   </si>
 </sst>
 </file>
@@ -548,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5DEDC5-385B-4572-A390-E60F8AFF0B4D}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -913,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -921,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -929,7 +938,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -937,7 +946,7 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -945,7 +954,7 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -974,23 +983,23 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B26">
         <v>0.8</v>
@@ -998,7 +1007,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B27">
         <v>200</v>
@@ -1006,10 +1015,26 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B28">
         <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/params.xlsx
+++ b/params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8351a88428b982e/Master/MRST/summer_sintef/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="8_{5A7E1129-02B9-4081-9DC3-4B1F6E6D9705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE98E791-80C6-43B7-AA68-2EE6178FD54F}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="8_{5A7E1129-02B9-4081-9DC3-4B1F6E6D9705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77436476-99DF-4340-B60E-C24E34B696E4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EA72C794-5F15-4919-A5C6-0FE572CB2F79}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="72">
   <si>
     <t>nr layers</t>
   </si>
@@ -156,9 +156,6 @@
     <t>Case 4 - study 1 (pc)</t>
   </si>
   <si>
-    <t>12 m^3/s</t>
-  </si>
-  <si>
     <t>0.3*n_steps</t>
   </si>
   <si>
@@ -199,6 +196,60 @@
   </si>
   <si>
     <t>20 md</t>
+  </si>
+  <si>
+    <t>Case 4 - study 2 (optimal)</t>
+  </si>
+  <si>
+    <t>[75, 60]</t>
+  </si>
+  <si>
+    <t>[800, 400]</t>
+  </si>
+  <si>
+    <t>sum(poreVolume)/100 / (inj_stop*tot_time)</t>
+  </si>
+  <si>
+    <t>(16000 days, 75 days, 10)</t>
+  </si>
+  <si>
+    <t>{15: [6551, 1167], 30: [5223] }</t>
+  </si>
+  <si>
+    <t>{layer: seeds}</t>
+  </si>
+  <si>
+    <t>leaked_perc</t>
+  </si>
+  <si>
+    <t>10 md</t>
+  </si>
+  <si>
+    <t>10 m^3/s</t>
+  </si>
+  <si>
+    <t>15, 30, 45</t>
+  </si>
+  <si>
+    <t>0, 0.05, 0.1</t>
+  </si>
+  <si>
+    <t>Case 4 - study 2 (test)</t>
+  </si>
+  <si>
+    <t>(500 years, 200 days, 10)</t>
+  </si>
+  <si>
+    <t>{30: [3042] }</t>
+  </si>
+  <si>
+    <t>pc_median</t>
+  </si>
+  <si>
+    <t>1*barsa</t>
+  </si>
+  <si>
+    <t>[50, 40]</t>
   </si>
 </sst>
 </file>
@@ -557,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5DEDC5-385B-4572-A390-E60F8AFF0B4D}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -922,42 +973,42 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -965,7 +1016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -973,68 +1024,308 @@
         <v>6653</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="1">
-        <v>44749</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>44756</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>43</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>44</v>
       </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="B26">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>45</v>
       </c>
-      <c r="B26">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="B27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>46</v>
-      </c>
-      <c r="B27">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>47</v>
       </c>
       <c r="B28">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>0.3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" t="s">
+        <v>60</v>
+      </c>
+      <c r="H40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="1">
+        <v>44756</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="1">
+        <v>44756</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" t="s">
+        <v>69</v>
+      </c>
+      <c r="H42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>0.8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>200</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>47</v>
+      </c>
+      <c r="H46">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>0.3</v>
+      </c>
+      <c r="G47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" t="s">
         <v>53</v>
       </c>
-      <c r="B30" t="s">
-        <v>54</v>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="G48" t="s">
+        <v>61</v>
+      </c>
+      <c r="H48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
